--- a/static/gad7scaredexample.xlsx
+++ b/static/gad7scaredexample.xlsx
@@ -59,55 +59,55 @@
     <t xml:space="preserve">Question no</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1</t>
+    <t xml:space="preserve">Q01</t>
   </si>
   <si>
     <t xml:space="preserve">When I feel frightened, it is hard for me to breathe</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2</t>
+    <t xml:space="preserve">Q02</t>
   </si>
   <si>
     <t xml:space="preserve">I get headaches when I am at school</t>
   </si>
   <si>
-    <t xml:space="preserve">Q3</t>
+    <t xml:space="preserve">Q03</t>
   </si>
   <si>
     <t xml:space="preserve">I don’t like to be with people I don’t know well</t>
   </si>
   <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Q04</t>
   </si>
   <si>
     <t xml:space="preserve">I get scared if I sleep away from home</t>
   </si>
   <si>
-    <t xml:space="preserve">Q5</t>
+    <t xml:space="preserve">Q05</t>
   </si>
   <si>
     <t xml:space="preserve">I worry about other people liking me</t>
   </si>
   <si>
-    <t xml:space="preserve">Q6</t>
+    <t xml:space="preserve">Q06</t>
   </si>
   <si>
     <t xml:space="preserve">When I get frightened, I feel like passing out</t>
   </si>
   <si>
-    <t xml:space="preserve">Q7</t>
+    <t xml:space="preserve">Q07</t>
   </si>
   <si>
     <t xml:space="preserve">I am nervous</t>
   </si>
   <si>
-    <t xml:space="preserve">Q8</t>
+    <t xml:space="preserve">Q08</t>
   </si>
   <si>
     <t xml:space="preserve">I follow my mother or father wherever they go</t>
   </si>
   <si>
-    <t xml:space="preserve">Q9</t>
+    <t xml:space="preserve">Q09</t>
   </si>
   <si>
     <t xml:space="preserve">People tell me that I look nervous</t>
@@ -563,6 +563,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -622,8 +623,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -650,93 +655,93 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -759,672 +764,672 @@
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>175</v>
       </c>
     </row>
